--- a/utilities/alihmedia_vital/Daftar_Arsip_Vital_2023.xlsx
+++ b/utilities/alihmedia_vital/Daftar_Arsip_Vital_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\home\farid\dev\python\bwsmalut3\utilities\alihmedia_vital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5CFFDA-C5E3-4E42-A2CC-0054B84A9388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E886728-1641-468A-97A0-798B4A11AEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-13620" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar Arsip Vital" sheetId="1" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>TOYOTA/FORTUNER 2.8 VRZ 4X2 A/T (DG 1257 WP</t>
-  </si>
-  <si>
     <t>Balai Wilayah Sungai Maluku Utara</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   <si>
     <t>1 buah Sertifikat
 (Buku Tanah Hak Pakai No.02012)</t>
+  </si>
+  <si>
+    <t>TOYOTA/FORTUNER 2.8 VRZ 4X2 A/T (DG 1257 WP)</t>
   </si>
 </sst>
 </file>
@@ -919,6 +919,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -939,12 +945,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -1272,33 +1272,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="A2" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
@@ -1328,16 +1328,16 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1408,10 +1408,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="58" t="s">
         <v>66</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>67</v>
       </c>
       <c r="D9" s="59">
         <v>2022</v>
@@ -1420,13 +1420,13 @@
         <v>33</v>
       </c>
       <c r="F9" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="H9" s="55" t="s">
         <v>69</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>70</v>
       </c>
       <c r="I9" s="61" t="s">
         <v>13</v>
@@ -1440,10 +1440,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="59">
         <v>2012</v>
@@ -1452,13 +1452,13 @@
         <v>33</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="55" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="55" t="s">
-        <v>70</v>
       </c>
       <c r="I10" s="61" t="s">
         <v>13</v>
@@ -1472,10 +1472,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="59">
         <v>2012</v>
@@ -1484,13 +1484,13 @@
         <v>33</v>
       </c>
       <c r="F11" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="55" t="s">
         <v>69</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>70</v>
       </c>
       <c r="I11" s="61" t="s">
         <v>13</v>
@@ -1504,10 +1504,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="59">
         <v>2013</v>
@@ -1516,13 +1516,13 @@
         <v>33</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="55" t="s">
         <v>69</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>70</v>
       </c>
       <c r="I12" s="61" t="s">
         <v>13</v>
@@ -1536,10 +1536,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="59">
         <v>2022</v>
@@ -1548,13 +1548,13 @@
         <v>33</v>
       </c>
       <c r="F13" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="H13" s="55" t="s">
         <v>69</v>
-      </c>
-      <c r="H13" s="55" t="s">
-        <v>70</v>
       </c>
       <c r="I13" s="61" t="s">
         <v>13</v>
@@ -1568,10 +1568,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="59">
         <v>2010</v>
@@ -1580,13 +1580,13 @@
         <v>33</v>
       </c>
       <c r="F14" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="H14" s="55" t="s">
         <v>69</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>70</v>
       </c>
       <c r="I14" s="61" t="s">
         <v>13</v>
@@ -1600,10 +1600,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="59">
         <v>2010</v>
@@ -1612,13 +1612,13 @@
         <v>33</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="55" t="s">
         <v>69</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>70</v>
       </c>
       <c r="I15" s="61" t="s">
         <v>13</v>
@@ -1648,10 +1648,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>66</v>
       </c>
       <c r="D17" s="21">
         <v>2023</v>
@@ -1660,13 +1660,13 @@
         <v>33</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="71" t="s">
-        <v>70</v>
+      <c r="H17" s="64" t="s">
+        <v>69</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>36</v>
@@ -1711,33 +1711,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
@@ -1767,16 +1767,16 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="69" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -2220,30 +2220,30 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="H26" s="65" t="s">
+      <c r="H26" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10">
       <c r="H28" s="16"/>
@@ -2261,18 +2261,18 @@
       <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="H31" s="66" t="s">
+      <c r="H31" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="9">
